--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H2">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I2">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J2">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>754.2774987189521</v>
+        <v>878.2636993070172</v>
       </c>
       <c r="R2">
-        <v>6788.497488470568</v>
+        <v>7904.373293763155</v>
       </c>
       <c r="S2">
-        <v>0.004886257931033961</v>
+        <v>0.004657593412147263</v>
       </c>
       <c r="T2">
-        <v>0.005280836523559676</v>
+        <v>0.004993312439306039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H3">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I3">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J3">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>4967.39725613119</v>
+        <v>4446.014036248216</v>
       </c>
       <c r="R3">
-        <v>44706.57530518071</v>
+        <v>40014.12632623394</v>
       </c>
       <c r="S3">
-        <v>0.03217911747412638</v>
+        <v>0.02357802753533263</v>
       </c>
       <c r="T3">
-        <v>0.03477766856595825</v>
+        <v>0.02527753021107939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H4">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I4">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J4">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>4171.674698304592</v>
+        <v>5181.851104085112</v>
       </c>
       <c r="R4">
-        <v>37545.07228474133</v>
+        <v>46636.659936766</v>
       </c>
       <c r="S4">
-        <v>0.0270243757965789</v>
+        <v>0.02748030640929167</v>
       </c>
       <c r="T4">
-        <v>0.02920666750450839</v>
+        <v>0.02946108508990631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H5">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I5">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J5">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>1842.477058355433</v>
+        <v>1582.853618604051</v>
       </c>
       <c r="R5">
-        <v>11054.8623501326</v>
+        <v>9497.121711624306</v>
       </c>
       <c r="S5">
-        <v>0.01193568435281119</v>
+        <v>0.008394162928765809</v>
       </c>
       <c r="T5">
-        <v>0.00859968217719082</v>
+        <v>0.005999475760801292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H6">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I6">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J6">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>4294.601858068017</v>
+        <v>6006.460676275371</v>
       </c>
       <c r="R6">
-        <v>38651.41672261215</v>
+        <v>54058.14608647834</v>
       </c>
       <c r="S6">
-        <v>0.02782070580821739</v>
+        <v>0.03185336214876647</v>
       </c>
       <c r="T6">
-        <v>0.03006730332636263</v>
+        <v>0.03414935039978687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J7">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>2155.537890806081</v>
+        <v>2804.190447614085</v>
       </c>
       <c r="R7">
-        <v>19399.84101725473</v>
+        <v>25237.71402852677</v>
       </c>
       <c r="S7">
-        <v>0.01396371246985839</v>
+        <v>0.01487113604435557</v>
       </c>
       <c r="T7">
-        <v>0.0150913201587191</v>
+        <v>0.01594304655344726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J8">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>14195.58852340441</v>
@@ -948,10 +948,10 @@
         <v>127760.2967106397</v>
       </c>
       <c r="S8">
-        <v>0.09195993135945928</v>
+        <v>0.07528180845949874</v>
       </c>
       <c r="T8">
-        <v>0.09938594545792062</v>
+        <v>0.08070811626748847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J9">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>11921.6109397201</v>
+        <v>16545.02785268182</v>
       </c>
       <c r="R9">
-        <v>107294.4984574809</v>
+        <v>148905.2506741364</v>
       </c>
       <c r="S9">
-        <v>0.07722895897576498</v>
+        <v>0.08774131595242643</v>
       </c>
       <c r="T9">
-        <v>0.08346540706446327</v>
+        <v>0.09406570424195713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J10">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>5265.342157191773</v>
+        <v>5053.861386691842</v>
       </c>
       <c r="R10">
-        <v>31592.05294315064</v>
+        <v>30323.16832015105</v>
       </c>
       <c r="S10">
-        <v>0.03410922361979685</v>
+        <v>0.02680155347321582</v>
       </c>
       <c r="T10">
-        <v>0.02457575734833303</v>
+        <v>0.01915560512452665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J11">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>12272.90625361884</v>
+        <v>19177.90712023165</v>
       </c>
       <c r="R11">
-        <v>110456.1562825696</v>
+        <v>172601.1640820849</v>
       </c>
       <c r="S11">
-        <v>0.07950467251168261</v>
+        <v>0.101703957401908</v>
       </c>
       <c r="T11">
-        <v>0.08592489064622538</v>
+        <v>0.1090347719698171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H12">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I12">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J12">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>1500.773580615429</v>
+        <v>2366.959581762461</v>
       </c>
       <c r="R12">
-        <v>13506.96222553886</v>
+        <v>21302.63623586215</v>
       </c>
       <c r="S12">
-        <v>0.009722107345669018</v>
+        <v>0.01255242060389641</v>
       </c>
       <c r="T12">
-        <v>0.01050719390617857</v>
+        <v>0.01345719825637189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H13">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I13">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J13">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>9883.548931374149</v>
+        <v>11982.20481166599</v>
       </c>
       <c r="R13">
-        <v>88951.94038236732</v>
+        <v>107839.8433049939</v>
       </c>
       <c r="S13">
-        <v>0.0640262627941439</v>
+        <v>0.06354382884986538</v>
       </c>
       <c r="T13">
-        <v>0.06919655732516736</v>
+        <v>0.06812406385873998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H14">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I14">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J14">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>8300.312795715728</v>
+        <v>13965.31831129804</v>
       </c>
       <c r="R14">
-        <v>74702.81516144155</v>
+        <v>125687.8648016824</v>
       </c>
       <c r="S14">
-        <v>0.05376995773705374</v>
+        <v>0.074060643308569</v>
       </c>
       <c r="T14">
-        <v>0.05811202779219803</v>
+        <v>0.07939892961270632</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H15">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I15">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J15">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>3665.946414636681</v>
+        <v>4265.860631651304</v>
       </c>
       <c r="R15">
-        <v>21995.67848782009</v>
+        <v>25595.16378990783</v>
       </c>
       <c r="S15">
-        <v>0.02374823559457445</v>
+        <v>0.0226226410026904</v>
       </c>
       <c r="T15">
-        <v>0.01711064672502748</v>
+        <v>0.01616885298662006</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H16">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I16">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J16">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>8544.898951376434</v>
+        <v>16187.67764329461</v>
       </c>
       <c r="R16">
-        <v>76904.09056238789</v>
+        <v>145689.0987896515</v>
       </c>
       <c r="S16">
-        <v>0.05535440251360874</v>
+        <v>0.08584622227795874</v>
       </c>
       <c r="T16">
-        <v>0.05982442078571003</v>
+        <v>0.09203401233993533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H17">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I17">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J17">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>824.9190313308275</v>
+        <v>1076.825934973204</v>
       </c>
       <c r="R17">
-        <v>4949.514187984964</v>
+        <v>6460.955609839225</v>
       </c>
       <c r="S17">
-        <v>0.005343878302278502</v>
+        <v>0.005710605350896164</v>
       </c>
       <c r="T17">
-        <v>0.00385027398804806</v>
+        <v>0.004081483606280327</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H18">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I18">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J18">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>5432.616695742076</v>
+        <v>5451.191054878571</v>
       </c>
       <c r="R18">
-        <v>32595.70017445246</v>
+        <v>32707.14632927142</v>
       </c>
       <c r="S18">
-        <v>0.03519283879065854</v>
+        <v>0.02890866554725161</v>
       </c>
       <c r="T18">
-        <v>0.02535650404004644</v>
+        <v>0.02066160017379456</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H19">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I19">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J19">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>4562.371086234657</v>
+        <v>6353.38983548013</v>
       </c>
       <c r="R19">
-        <v>27374.22651740794</v>
+        <v>38120.33901288078</v>
       </c>
       <c r="S19">
-        <v>0.02955533201281481</v>
+        <v>0.03369319108359418</v>
       </c>
       <c r="T19">
-        <v>0.02129467020395001</v>
+        <v>0.02408119605557744</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H20">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I20">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J20">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>2015.03344963782</v>
+        <v>1940.713055912373</v>
       </c>
       <c r="R20">
-        <v>8060.133798551279</v>
+        <v>7762.852223649493</v>
       </c>
       <c r="S20">
-        <v>0.01305351570385395</v>
+        <v>0.01029195713225743</v>
       </c>
       <c r="T20">
-        <v>0.006270054459099021</v>
+        <v>0.004903911433867691</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H21">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I21">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J21">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>4696.81093592992</v>
+        <v>7364.431250788841</v>
       </c>
       <c r="R21">
-        <v>28180.86561557952</v>
+        <v>44186.58750473305</v>
       </c>
       <c r="S21">
-        <v>0.0304262419669579</v>
+        <v>0.03905492906623595</v>
       </c>
       <c r="T21">
-        <v>0.02192216240206753</v>
+        <v>0.02791333719169862</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H22">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I22">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J22">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>2027.905822293422</v>
+        <v>2025.824763248593</v>
       </c>
       <c r="R22">
-        <v>18251.1524006408</v>
+        <v>18232.42286923733</v>
       </c>
       <c r="S22">
-        <v>0.01313690375809988</v>
+        <v>0.01074332012004637</v>
       </c>
       <c r="T22">
-        <v>0.01419774439897042</v>
+        <v>0.01151769792849799</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H23">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I23">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J23">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>13355.05014329775</v>
+        <v>10255.28590045245</v>
       </c>
       <c r="R23">
-        <v>120195.4512896797</v>
+        <v>92297.57310407203</v>
       </c>
       <c r="S23">
-        <v>0.08651486991574661</v>
+        <v>0.05438566126246863</v>
       </c>
       <c r="T23">
-        <v>0.09350118052106439</v>
+        <v>0.0583057761533056</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H24">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I24">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J24">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>11215.717589049</v>
+        <v>11952.58587415786</v>
       </c>
       <c r="R24">
-        <v>100941.458301441</v>
+        <v>107573.2728674207</v>
       </c>
       <c r="S24">
-        <v>0.07265613665369015</v>
+        <v>0.06338675419413101</v>
       </c>
       <c r="T24">
-        <v>0.0785233169261615</v>
+        <v>0.06795566727213957</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H25">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I25">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J25">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>4953.574726048179</v>
+        <v>3651.049291569087</v>
       </c>
       <c r="R25">
-        <v>29721.44835628908</v>
+        <v>21906.29574941452</v>
       </c>
       <c r="S25">
-        <v>0.03208957423922971</v>
+        <v>0.01936218375102463</v>
       </c>
       <c r="T25">
-        <v>0.02312059631450869</v>
+        <v>0.01383853912251049</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H26">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I26">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J26">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>11546.21227227317</v>
+        <v>13854.65070123993</v>
       </c>
       <c r="R26">
-        <v>103915.9104504586</v>
+        <v>124691.8563111593</v>
       </c>
       <c r="S26">
-        <v>0.07479710237229022</v>
+        <v>0.07347375268340543</v>
       </c>
       <c r="T26">
-        <v>0.08083717143856134</v>
+        <v>0.07876973594983777</v>
       </c>
     </row>
   </sheetData>
